--- a/bin/CONFIG.xlsx
+++ b/bin/CONFIG.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mscales\Desktop\Development\automated_sla_tool\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mscales\Desktop\Development\Daily SLA Parser - Automated Version\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10095" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CLIENT_DICT" sheetId="1" r:id="rId1"/>
     <sheet name="CONSTANTS" sheetId="2" r:id="rId2"/>
+    <sheet name="CLIENT LIST INFO" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Ameren</t>
   </si>
@@ -126,9 +127,6 @@
     <t xml:space="preserve">SUMMARY_PAGE </t>
   </si>
   <si>
-    <t xml:space="preserve">CLIENT_LIST_SHEET </t>
-  </si>
-  <si>
     <t xml:space="preserve">ARG_PATH </t>
   </si>
   <si>
@@ -180,15 +178,24 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Sheet1</t>
-  </si>
-  <si>
     <t>\\bin\\download.py</t>
   </si>
   <si>
+    <t>mindwirelessreporting@gmail.com</t>
+  </si>
+  <si>
+    <t>7b!2gX4bD3</t>
+  </si>
+  <si>
     <t>imap.gmail.com</t>
   </si>
   <si>
+    <t>mscales@mindwireless.com</t>
+  </si>
+  <si>
+    <t>wireless1!</t>
+  </si>
+  <si>
     <t>secure.emailsrvr.com</t>
   </si>
   <si>
@@ -210,13 +217,109 @@
     <t>\\raw\\Call Details Modified.xlsx</t>
   </si>
   <si>
-    <t>XXXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXXXXX@gmail.com</t>
-  </si>
-  <si>
-    <t>XXXXXXXXXXXXXXXX@mindwireless.com</t>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - CocaColaCanada(3593).xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - CocaColaCCR(3592).xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - CocaColaTCCC(3591).xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - CocaColaBottler.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Tokyo Electron.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Plains.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Pinnacle Foods.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Oshkosh.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Michaels.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Forterra.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Netscout.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - LVMH.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Lehigh Hanson.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Infosys.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - EGS.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Willbros.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Ecova.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Danaher.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - CBI.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Nordstrom.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Universal Serv.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - ClearwaterPaper.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Carlson.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - SWS.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Humana.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - BMW NoAm.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Assoc Materials.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - Ameren.xlsx</t>
+  </si>
+  <si>
+    <t>\\converted_files_come_here\\Desktop\\development\\Daily SLA Parser - Automated Version\raw\\Incoming Calls by Hunt Group - AAP.xlsx</t>
+  </si>
+  <si>
+    <t>\\bin\\Incoming DID Summary Template.xlsx</t>
+  </si>
+  <si>
+    <t>TEMPLATE_LOCATION</t>
+  </si>
+  <si>
+    <t>NETWORK_OUTPUT_LOCATION</t>
+  </si>
+  <si>
+    <t>M:\\Help Desk\\Daily SLA Report\\</t>
+  </si>
+  <si>
+    <t>C:\\Users\\mscales\\Desktop\\Development\\MSSQLupdater\\</t>
+  </si>
+  <si>
+    <t>SQL_UPDATER_PATH</t>
   </si>
 </sst>
 </file>
@@ -257,10 +360,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -836,164 +938,519 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>58</v>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="B18" s="2">
         <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="146.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>7506</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7507</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7509</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7515</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7517</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7521</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7523</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7524</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7527</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7539</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7544</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7545</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7548</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7549</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7551</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7553</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7557</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7558</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7561</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7567</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7576</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7577</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7578</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7579</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7589</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7595</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>7591</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7592</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>7593</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>